--- a/database/inputs/urbanonto_inputs.xlsx
+++ b/database/inputs/urbanonto_inputs.xlsx
@@ -5,28 +5,29 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\ihpan\urbanonto\database\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ladmin.garbaczp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D5E84-7479-41B3-A486-909FDA471859}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376A3B66-4563-4331-B689-F89C18F6E076}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" firstSheet="8" activeTab="13" xr2:uid="{9D50BE9F-7DEF-492E-8E7D-ABF254487C62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{9D50BE9F-7DEF-492E-8E7D-ABF254487C62}"/>
   </bookViews>
   <sheets>
     <sheet name="topographic_objects" sheetId="12" r:id="rId1"/>
     <sheet name="historical_sources" sheetId="3" r:id="rId2"/>
-    <sheet name="locations" sheetId="4" r:id="rId3"/>
-    <sheet name="name_manifestations" sheetId="10" r:id="rId4"/>
-    <sheet name="location_manifestations" sheetId="8" r:id="rId5"/>
-    <sheet name="function_manifestations" sheetId="7" r:id="rId6"/>
-    <sheet name="type_manifestations" sheetId="13" r:id="rId7"/>
-    <sheet name="mereological_manifestations" sheetId="9" r:id="rId8"/>
-    <sheet name="object_provenances" sheetId="11" r:id="rId9"/>
-    <sheet name="types" sheetId="14" r:id="rId10"/>
-    <sheet name="functions" sheetId="2" r:id="rId11"/>
-    <sheet name="location_link_types" sheetId="5" r:id="rId12"/>
-    <sheet name="name_link_types" sheetId="6" r:id="rId13"/>
-    <sheet name="date_mappings" sheetId="18" r:id="rId14"/>
+    <sheet name="locations_raw" sheetId="19" r:id="rId3"/>
+    <sheet name="locations_refined" sheetId="4" r:id="rId4"/>
+    <sheet name="name_manifestations" sheetId="10" r:id="rId5"/>
+    <sheet name="location_manifestations" sheetId="8" r:id="rId6"/>
+    <sheet name="function_manifestations" sheetId="7" r:id="rId7"/>
+    <sheet name="type_manifestations" sheetId="13" r:id="rId8"/>
+    <sheet name="mereological_manifestations" sheetId="9" r:id="rId9"/>
+    <sheet name="object_provenances" sheetId="11" r:id="rId10"/>
+    <sheet name="types" sheetId="14" r:id="rId11"/>
+    <sheet name="functions" sheetId="2" r:id="rId12"/>
+    <sheet name="location_link_types" sheetId="5" r:id="rId13"/>
+    <sheet name="name_link_types" sheetId="6" r:id="rId14"/>
+    <sheet name="date_mappings" sheetId="18" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="534">
   <si>
     <t>http://purl.org/ontohgis#object_406</t>
   </si>
@@ -292,9 +293,6 @@
     <t>nazwa podstawowa</t>
   </si>
   <si>
-    <t>historical_source_identifiers</t>
-  </si>
-  <si>
     <t>functions</t>
   </si>
   <si>
@@ -310,18 +308,12 @@
     <t>location_link_type_names</t>
   </si>
   <si>
-    <t>location_identifiers</t>
-  </si>
-  <si>
     <t>part_identifiers</t>
   </si>
   <si>
     <t>whole_identifiers</t>
   </si>
   <si>
-    <t xml:space="preserve">	topographic_object_identifiers</t>
-  </si>
-  <si>
     <t>name_link_type_names</t>
   </si>
   <si>
@@ -1616,13 +1608,55 @@
   </si>
   <si>
     <t>pierwsza połowa XVIII w.</t>
+  </si>
+  <si>
+    <t>pod</t>
+  </si>
+  <si>
+    <t>na lewo od</t>
+  </si>
+  <si>
+    <t>na prawo od</t>
+  </si>
+  <si>
+    <t>Brama Świdnicka</t>
+  </si>
+  <si>
+    <t>Stadion Legii</t>
+  </si>
+  <si>
+    <t>the_geom_type</t>
+  </si>
+  <si>
+    <t>the_geom_X_Y</t>
+  </si>
+  <si>
+    <t>45.3, 34.2</t>
+  </si>
+  <si>
+    <t>POINT(45.3, 34.2)</t>
+  </si>
+  <si>
+    <t>POINT</t>
+  </si>
+  <si>
+    <t>locations</t>
+  </si>
+  <si>
+    <t>historical_sources</t>
+  </si>
+  <si>
+    <t>Jakieś źródło</t>
+  </si>
+  <si>
+    <t>location_raw_identifiers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1632,9 +1666,26 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1657,17 +1708,250 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0AD24A0D-80DF-48B0-A159-D48D99DCBF18}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1980,7 +2264,7 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1989,7 +2273,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1997,23 +2281,103 @@
         <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>524</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="22" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="21" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{E626639F-9721-40BD-BC57-9C74C07793C0}">
+      <formula1>0</formula1>
+      <formula2>10000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2594511F-6A9F-403A-A0D3-16C997E5349C}">
+  <sheetPr codeName="Sheet11">
+    <tabColor theme="7"/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F6E7A6D-8203-4EB0-B3D5-4FED6B61CDA9}">
+          <x14:formula1>
+            <xm:f>topographic_objects!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:B1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{BCAAF20C-CCD9-4EF6-8BBE-C43FEC7D9B0F}">
+          <x14:formula1>
+            <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABB772C9-ADBD-4233-B2E3-E7AB6068E529}">
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C206"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F196" sqref="F196"/>
+    <sheetView topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2026,10 +2390,10 @@
         <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,10 +2401,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,10 +2412,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C3" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,10 +2423,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,10 +2434,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,10 +2445,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="C6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,10 +2456,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2103,10 +2467,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="C8" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2114,10 +2478,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2125,10 +2489,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C10" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,10 +2500,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="C11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,10 +2511,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2158,10 +2522,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2169,10 +2533,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C14" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,10 +2544,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2191,10 +2555,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C16" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2202,10 +2566,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C17" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2213,10 +2577,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2224,10 +2588,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C19" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2235,10 +2599,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,10 +2610,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C21" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2257,10 +2621,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2268,10 +2632,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2279,10 +2643,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C24" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2290,10 +2654,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C25" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2301,10 +2665,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C26" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2312,10 +2676,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C27" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2323,10 +2687,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C28" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2334,10 +2698,10 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C29" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2345,10 +2709,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C30" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2356,10 +2720,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C31" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -2367,10 +2731,10 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -2378,10 +2742,10 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C33" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2389,10 +2753,10 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C34" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2400,10 +2764,10 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C35" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -2411,10 +2775,10 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C36" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -2422,10 +2786,10 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C37" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -2433,10 +2797,10 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C38" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -2444,10 +2808,10 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C39" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -2455,10 +2819,10 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C40" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -2466,10 +2830,10 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -2477,10 +2841,10 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C42" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -2488,10 +2852,10 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C43" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -2499,10 +2863,10 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C44" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -2510,10 +2874,10 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C45" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -2521,10 +2885,10 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C46" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -2532,10 +2896,10 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C47" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -2543,10 +2907,10 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C48" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -2554,10 +2918,10 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C49" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -2565,10 +2929,10 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C50" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -2576,10 +2940,10 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -2587,10 +2951,10 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C52" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -2598,10 +2962,10 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C53" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -2609,10 +2973,10 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C54" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -2620,10 +2984,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C55" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -2631,10 +2995,10 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C56" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -2642,10 +3006,10 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C57" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -2653,10 +3017,10 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C58" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -2664,10 +3028,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C59" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -2675,10 +3039,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C60" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -2686,10 +3050,10 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C61" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -2697,10 +3061,10 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C62" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -2708,10 +3072,10 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C63" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -2719,10 +3083,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C64" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -2730,10 +3094,10 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C65" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -2741,10 +3105,10 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C66" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -2752,10 +3116,10 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C67" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -2763,10 +3127,10 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C68" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -2774,10 +3138,10 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C69" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -2785,10 +3149,10 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C70" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -2796,10 +3160,10 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C71" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -2807,10 +3171,10 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C72" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -2818,10 +3182,10 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C73" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -2829,10 +3193,10 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C74" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -2840,10 +3204,10 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C75" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -2851,10 +3215,10 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C76" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,10 +3226,10 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C77" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -2873,10 +3237,10 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C78" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -2884,10 +3248,10 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C79" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -2895,10 +3259,10 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C80" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -2906,10 +3270,10 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C81" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -2917,10 +3281,10 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C82" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -2928,10 +3292,10 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C83" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -2939,10 +3303,10 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C84" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -2950,10 +3314,10 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C85" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -2961,10 +3325,10 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C86" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,10 +3336,10 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C87" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2983,10 +3347,10 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C88" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2994,10 +3358,10 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3005,10 +3369,10 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C90" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3016,10 +3380,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C91" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3027,10 +3391,10 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C92" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3038,10 +3402,10 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C93" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3049,10 +3413,10 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C94" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3060,10 +3424,10 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3071,10 +3435,10 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3082,10 +3446,10 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C97" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3093,10 +3457,10 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C98" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -3104,10 +3468,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C99" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -3115,10 +3479,10 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C100" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -3126,10 +3490,10 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C101" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -3137,10 +3501,10 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C102" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -3148,10 +3512,10 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C103" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -3159,10 +3523,10 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C104" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -3170,10 +3534,10 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C105" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -3181,10 +3545,10 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C106" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3192,10 +3556,10 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C107" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -3203,10 +3567,10 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C108" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -3214,10 +3578,10 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C109" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -3225,10 +3589,10 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C110" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3236,10 +3600,10 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3247,10 +3611,10 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C112" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -3258,10 +3622,10 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C113" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -3269,10 +3633,10 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C114" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -3280,10 +3644,10 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C115" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3291,10 +3655,10 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C116" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -3302,10 +3666,10 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C117" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -3313,10 +3677,10 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C118" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -3324,10 +3688,10 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -3335,10 +3699,10 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -3346,10 +3710,10 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C121" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -3357,10 +3721,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C122" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -3368,10 +3732,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C123" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -3379,10 +3743,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C124" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -3390,10 +3754,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C125" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -3401,10 +3765,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C126" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -3412,10 +3776,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C127" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -3423,10 +3787,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C128" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -3434,10 +3798,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C129" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -3445,10 +3809,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -3456,10 +3820,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C131" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -3467,10 +3831,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C132" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -3478,10 +3842,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C133" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -3489,10 +3853,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C134" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -3500,10 +3864,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C135" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -3511,10 +3875,10 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C136" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -3522,10 +3886,10 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C137" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -3533,10 +3897,10 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C138" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -3544,10 +3908,10 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C139" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -3555,10 +3919,10 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C140" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -3566,10 +3930,10 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C141" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -3577,10 +3941,10 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C142" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -3588,10 +3952,10 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C143" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -3599,10 +3963,10 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C144" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -3610,10 +3974,10 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C145" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -3621,10 +3985,10 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C146" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -3632,10 +3996,10 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C147" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -3643,10 +4007,10 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C148" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -3654,10 +4018,10 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C149" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -3665,10 +4029,10 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C150" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -3676,10 +4040,10 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C151" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -3687,10 +4051,10 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C152" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -3698,10 +4062,10 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C153" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -3709,10 +4073,10 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C154" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -3720,10 +4084,10 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C155" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -3731,10 +4095,10 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C156" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -3742,10 +4106,10 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C157" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -3753,10 +4117,10 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C158" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -3764,10 +4128,10 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C159" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -3775,10 +4139,10 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C160" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -3786,10 +4150,10 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C161" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -3797,10 +4161,10 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C162" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -3808,10 +4172,10 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C163" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -3819,10 +4183,10 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C164" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -3830,10 +4194,10 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C165" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -3841,10 +4205,10 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C166" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -3852,10 +4216,10 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C167" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3863,10 +4227,10 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C168" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -3874,10 +4238,10 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C169" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -3885,10 +4249,10 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C170" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -3896,10 +4260,10 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C171" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -3907,10 +4271,10 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C172" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -3918,10 +4282,10 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C173" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -3929,10 +4293,10 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C174" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -3940,10 +4304,10 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C175" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -3951,10 +4315,10 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C176" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -3962,10 +4326,10 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C177" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -3973,10 +4337,10 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C178" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -3984,10 +4348,10 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C179" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -3995,10 +4359,10 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C180" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4006,10 +4370,10 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C181" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4017,10 +4381,10 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C182" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4028,10 +4392,10 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C183" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4039,10 +4403,10 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C184" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4050,10 +4414,10 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C185" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4061,10 +4425,10 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C186" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4072,10 +4436,10 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C187" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4083,10 +4447,10 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C188" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4094,10 +4458,10 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C189" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4105,10 +4469,10 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C190" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4116,10 +4480,10 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C191" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4127,10 +4491,10 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C192" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
@@ -4138,10 +4502,10 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C193" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
@@ -4149,10 +4513,10 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C194" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
@@ -4160,10 +4524,10 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C195" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
@@ -4171,10 +4535,10 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C196" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
@@ -4182,10 +4546,10 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C197" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
@@ -4193,10 +4557,10 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C198" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -4204,10 +4568,10 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C199" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
@@ -4215,10 +4579,10 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C200" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
@@ -4226,10 +4590,10 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C201" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
@@ -4237,10 +4601,10 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C202" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
@@ -4248,10 +4612,10 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C203" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
@@ -4259,10 +4623,10 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C204" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
@@ -4270,10 +4634,10 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C205" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
@@ -4281,10 +4645,10 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C206" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4293,14 +4657,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EE6E54D-BD7D-46F3-BD77-E29298F2B904}">
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F196" sqref="F196"/>
     </sheetView>
   </sheetViews>
@@ -4352,7 +4716,7 @@
         <v>67</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4363,7 +4727,7 @@
         <v>66</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -4396,7 +4760,7 @@
         <v>61</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -4418,7 +4782,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -4473,7 +4837,7 @@
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -4583,7 +4947,7 @@
         <v>30</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -4627,7 +4991,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -4638,7 +5002,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -4671,7 +5035,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -4770,7 +5134,7 @@
         <v>0</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
@@ -4779,20 +5143,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE44D9A-2C8F-450D-BEE1-094FFC47B546}">
   <sheetPr codeName="Sheet5">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4806,20 +5170,40 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>519</v>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>522</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF022A4-9410-4BB7-8AC5-A6CD90CD49DF}">
   <sheetPr codeName="Sheet6">
     <tabColor theme="9"/>
@@ -4851,19 +5235,23 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7F06352-4820-46A8-A8D5-3BB6F2F70C64}">
   <sheetPr codeName="Sheet18">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4872,23 +5260,30 @@
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B2">
         <v>1725</v>
       </c>
+      <c r="C2" t="b">
+        <f>OR(ISNUMBER(B2),COUNTIF($A$2:$A$1048576,B2))</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{C349199C-AE89-472E-87AD-117746600ACE}">
       <formula1>-10000</formula1>
@@ -4904,7 +5299,7 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -4912,9 +5307,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="20" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="18" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4D42EB-C601-48D6-980E-AA20A137B080}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -4922,48 +5358,120 @@
         <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>526</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4BE191-00AC-40A1-819D-8B8381C05F69}">
-  <sheetPr codeName="Sheet4">
-    <tabColor theme="9"/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="17" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="12" priority="1"/>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{5B21DD14-D38B-46F6-BDEF-778D6A4BD3DE}">
+      <formula1>0</formula1>
+      <formula2>1000000</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A4BE191-00AC-40A1-819D-8B8381C05F69}">
+  <sheetPr codeName="Sheet4">
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>529</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:C1048576">
+    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A23A93BA-7C16-410C-9CDB-AC477F8D65F3}">
+          <x14:formula1>
+            <xm:f>locations_raw!$A:$A</xm:f>
+          </x14:formula1>
+          <xm:sqref>A1:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0101CC35-AEB7-42F8-8DCE-A94ABFC5EB8B}">
   <sheetPr codeName="Sheet10">
     <tabColor theme="7"/>
@@ -4971,7 +5479,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4982,29 +5490,35 @@
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
         <v>72</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="F1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 C1:C1048576" xr:uid="{04E3BE6B-2B8D-4599-B6C1-E3F628164E78}">
+      <formula1>OR(ISNUMBER(B1),COUNTIF($A$2:$A$1048576,B1))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5015,17 +5529,17 @@
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{874ED11E-E775-4B52-9BF5-01B3FE2FC4D2}">
-          <x14:formula1>
-            <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F6B80951-F519-46CC-A099-B873F79BF64F}">
           <x14:formula1>
             <xm:f>name_link_types!$A$2:$A$100</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4438D2CF-DDCF-4F4B-B3F7-078EA894ADAA}">
+          <x14:formula1>
+            <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5033,15 +5547,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A893F5D0-B380-4C13-971F-041A082BA99B}">
   <sheetPr codeName="Sheet8">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5056,46 +5570,56 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E1" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" t="s">
-        <v>86</v>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 C1:C1048576" xr:uid="{C52CB6CC-A618-4975-B857-516AE91F7B04}">
+      <formula1>OR(ISNUMBER(B1),COUNTIF($A$2:$A$1048576,B1))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{08C950D1-20E2-4E16-8BC3-CBFE19AD73CC}">
-          <x14:formula1>
-            <xm:f>locations!$A$2:$A$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6CDF159B-AC66-4A1E-B61A-C9E2BFC58362}">
-          <x14:formula1>
-            <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1E6C7972-2A08-4225-9B05-D0921033250A}">
           <x14:formula1>
             <xm:f>location_link_types!$A$2:$A$30</xm:f>
           </x14:formula1>
           <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B0DBC962-3F22-401A-85BA-5A4B87E63948}">
+          <x14:formula1>
+            <xm:f>locations_raw!$B$2:$B$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6A55E458-E155-4EA7-8689-8C963110A537}">
+          <x14:formula1>
+            <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5103,15 +5627,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D372DD3-7BF0-4F25-849C-9C4EFBCD9FD1}">
   <sheetPr codeName="Sheet7">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5119,38 +5643,42 @@
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 C1:C1048576" xr:uid="{5252FF09-8E13-45C4-BBDD-6737F17B9349}">
+      <formula1>OR(ISNUMBER(B1),COUNTIF($A$2:$A$1048576,B1))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{31FA7AE8-1ECD-4300-84F7-8778E3175730}">
-          <x14:formula1>
-            <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1AC71FBD-67C4-4BB5-A73E-80661E04B2E3}">
           <x14:formula1>
             <xm:f>functions!$C$2:$C$42</xm:f>
@@ -5163,21 +5691,27 @@
           </x14:formula1>
           <xm:sqref>A1:A1048576</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{33D32ADA-9C2D-477C-AA68-2484B5608180}">
+          <x14:formula1>
+            <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5972321-F120-40D7-A6EF-7FCBF9BAD0B3}">
   <sheetPr codeName="Sheet13">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5185,28 +5719,38 @@
     <col min="1" max="1" width="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 C1:C1048576" xr:uid="{EF2CD709-E12B-4273-995C-8E28A64642B2}">
+      <formula1>OR(ISNUMBER(B1),COUNTIF($A$2:$A$1048576,B1))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5217,17 +5761,17 @@
           </x14:formula1>
           <xm:sqref>A1</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{068F0392-9AA3-4968-8A8D-3C25A6550A95}">
-          <x14:formula1>
-            <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{714B2A54-4384-4FAE-9C5C-0C17F752BD63}">
           <x14:formula1>
             <xm:f>types!$C$2:$C$206</xm:f>
           </x14:formula1>
           <xm:sqref>D1:D1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{CCDA2EE1-715D-455C-831A-26917AF41855}">
+          <x14:formula1>
+            <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5235,48 +5779,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83730A2E-153D-4AE3-9CC9-13B9FB34368C}">
   <sheetPr codeName="Sheet9">
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>81</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 A1:A1048576" xr:uid="{F22D9820-4E69-4312-BA6A-D1B19B85FD6A}">
+      <formula1>OR(ISNUMBER(A1),COUNTIF($A$2:$A$1048576,A1))</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -5285,59 +5830,13 @@
           <x14:formula1>
             <xm:f>topographic_objects!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>A1:A1048576 D1:D1048576 E1:E1048576</xm:sqref>
+          <xm:sqref>C1:C1048576 D1:D1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{0B7D7F10-DE43-49BF-AFDA-70AC9EB77937}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AB2A8648-3701-4653-A413-75739C4C418D}">
           <x14:formula1>
             <xm:f>historical_sources!$A$2:$A$1048576</xm:f>
           </x14:formula1>
-          <xm:sqref>F1:F1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2594511F-6A9F-403A-A0D3-16C997E5349C}">
-  <sheetPr codeName="Sheet11">
-    <tabColor theme="7"/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F6E7A6D-8203-4EB0-B3D5-4FED6B61CDA9}">
-          <x14:formula1>
-            <xm:f>topographic_objects!$A$2:$A$1048576</xm:f>
-          </x14:formula1>
-          <xm:sqref>B1:B1048576 C1:C1048576</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
